--- a/UTSWEBPROG/admin/registrants.xlsx
+++ b/UTSWEBPROG/admin/registrants.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>EventID</t>
   </si>
@@ -39,6 +39,89 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Koreaan</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>06:57:37</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>No Registrants</t>
+  </si>
+  <si>
+    <t>akunjone</t>
+  </si>
+  <si>
+    <t>Jepun</t>
+  </si>
+  <si>
+    <t>2000-08-11</t>
+  </si>
+  <si>
+    <t>12:23:00</t>
+  </si>
+  <si>
+    <t>IKN</t>
+  </si>
+  <si>
+    <t>Jepang</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>1111-11-11</t>
+  </si>
+  <si>
+    <t>12:22:00</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a
+</t>
+  </si>
+  <si>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>0011-11-11</t>
+  </si>
+  <si>
+    <t>11:11:00</t>
+  </si>
+  <si>
+    <t>0003-03-31</t>
+  </si>
+  <si>
+    <t>03:03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+</t>
+  </si>
+  <si>
+    <t>0002-02-22</t>
+  </si>
+  <si>
+    <t>22:22:00</t>
+  </si>
+  <si>
+    <t>0001-11-11</t>
+  </si>
+  <si>
+    <t>hehehe</t>
   </si>
 </sst>
 </file>
@@ -378,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +495,3289 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="F41">
+        <v>222</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <v>222</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>222</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>222</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>222</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>222</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>22</v>
+      </c>
+      <c r="F55">
+        <v>222</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56">
+        <v>22</v>
+      </c>
+      <c r="F56">
+        <v>222</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>222</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>222</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>222</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>222</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="F70">
+        <v>222</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>222</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>222</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>222</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>222</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>222</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>222</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>222</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
+      </c>
+      <c r="F90">
+        <v>222</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
+      </c>
+      <c r="F91">
+        <v>222</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>222</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>222</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>222</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101">
+        <v>22</v>
+      </c>
+      <c r="F101">
+        <v>222</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
+      </c>
+      <c r="F105">
+        <v>222</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
+      </c>
+      <c r="F106">
+        <v>222</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
+      </c>
+      <c r="F110">
+        <v>222</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>222</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
+      </c>
+      <c r="F115">
+        <v>222</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
+      </c>
+      <c r="F116">
+        <v>222</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <v>222</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121">
+        <v>22</v>
+      </c>
+      <c r="F121">
+        <v>222</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125">
+        <v>22</v>
+      </c>
+      <c r="F125">
+        <v>222</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>222</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130">
+        <v>22</v>
+      </c>
+      <c r="F130">
+        <v>222</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131">
+        <v>22</v>
+      </c>
+      <c r="F131">
+        <v>222</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UTSWEBPROG/admin/registrants.xlsx
+++ b/UTSWEBPROG/admin/registrants.xlsx
@@ -1,31 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebProgramming SEMESTER3\UTS\kelompok4-uts-F\UTSWEBPROG\admin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>Koreaan</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>06:57:37</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>akunjone</t>
+  </si>
+  <si>
+    <t>0003-03-31</t>
+  </si>
+  <si>
+    <t>03:03:00</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+</t>
+  </si>
+  <si>
+    <t>No Registrants</t>
+  </si>
+  <si>
+    <t>0002-02-22</t>
+  </si>
+  <si>
+    <t>22:22:00</t>
+  </si>
+  <si>
+    <t>0001-11-11</t>
+  </si>
+  <si>
+    <t>11:11:00</t>
+  </si>
+  <si>
+    <t>hehehe</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>1111-11-11</t>
+  </si>
+  <si>
+    <t>jone</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -52,21 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -356,15 +408,4351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>222</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>222</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>222</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>222</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>222</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>222</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>222</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>222</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>222</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>222</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>222</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>222</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>222</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>222</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>222</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>222</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>222</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>222</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>222</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>222</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <v>222</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>22</v>
+      </c>
+      <c r="F55">
+        <v>222</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>222</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>222</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>222</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>222</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <v>222</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="F70">
+        <v>222</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>22</v>
+      </c>
+      <c r="F74">
+        <v>222</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>222</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>222</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>222</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>222</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>222</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>222</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
+      </c>
+      <c r="F90">
+        <v>222</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>222</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>222</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>222</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>222</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
+      </c>
+      <c r="F104">
+        <v>222</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
+      </c>
+      <c r="F105">
+        <v>222</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>222</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
+      </c>
+      <c r="F110">
+        <v>222</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111">
+        <v>11</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
+      </c>
+      <c r="F114">
+        <v>222</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
+      </c>
+      <c r="F115">
+        <v>222</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>33</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
+      </c>
+      <c r="F119">
+        <v>222</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
+      </c>
+      <c r="F120">
+        <v>222</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123">
+        <v>33</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>22</v>
+      </c>
+      <c r="F124">
+        <v>222</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>22</v>
+      </c>
+      <c r="F125">
+        <v>222</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126">
+        <v>11</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>22</v>
+      </c>
+      <c r="F129">
+        <v>222</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>22</v>
+      </c>
+      <c r="F130">
+        <v>222</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134">
+        <v>22</v>
+      </c>
+      <c r="F134">
+        <v>222</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>22</v>
+      </c>
+      <c r="F135">
+        <v>222</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="H137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>22</v>
+      </c>
+      <c r="F139">
+        <v>222</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>22</v>
+      </c>
+      <c r="F140">
+        <v>222</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>11</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>22</v>
+      </c>
+      <c r="F144">
+        <v>222</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>22</v>
+      </c>
+      <c r="F145">
+        <v>222</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>22</v>
+      </c>
+      <c r="F148">
+        <v>222</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149">
+        <v>22</v>
+      </c>
+      <c r="F149">
+        <v>222</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>22</v>
+      </c>
+      <c r="F151">
+        <v>222</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>22</v>
+      </c>
+      <c r="F152">
+        <v>222</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>5</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>22</v>
+      </c>
+      <c r="F154">
+        <v>222</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>22</v>
+      </c>
+      <c r="F155">
+        <v>222</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>22</v>
+      </c>
+      <c r="F157">
+        <v>222</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>22</v>
+      </c>
+      <c r="F158">
+        <v>222</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>22</v>
+      </c>
+      <c r="F160">
+        <v>222</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>22</v>
+      </c>
+      <c r="F161">
+        <v>222</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163">
+        <v>5</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>22</v>
+      </c>
+      <c r="F164">
+        <v>222</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>22</v>
+      </c>
+      <c r="F165">
+        <v>222</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>11</v>
+      </c>
+      <c r="F166">
+        <v>11</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>5</v>
+      </c>
+      <c r="H167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>22</v>
+      </c>
+      <c r="F168">
+        <v>222</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>22</v>
+      </c>
+      <c r="F169">
+        <v>222</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>10</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171">
+        <v>5</v>
+      </c>
+      <c r="H171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>22</v>
+      </c>
+      <c r="F172">
+        <v>222</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+      <c r="H172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173">
+        <v>22</v>
+      </c>
+      <c r="F173">
+        <v>222</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>10</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>